--- a/Assets/Resources/Data/Chara_RateList.xlsx
+++ b/Assets/Resources/Data/Chara_RateList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -29,14 +29,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マルス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジェイガン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -71,15 +63,6 @@
   <si>
     <t>move</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カイン</t>
-  </si>
-  <si>
-    <t>アベル</t>
-  </si>
-  <si>
-    <t>ゴードン</t>
   </si>
   <si>
     <t>中東</t>
@@ -89,25 +72,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガーバ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>total</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>便王</t>
-    <rPh sb="0" eb="1">
-      <t>ベン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>オウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ガバさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲイリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェーコブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャイロ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -461,17 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="11" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="1.375" customWidth="1"/>
+    <col min="5" max="11" width="5.125" customWidth="1"/>
     <col min="12" max="12" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,34 +486,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -518,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1">
         <v>50</v>
@@ -536,7 +539,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
         <v>20</v>
@@ -548,8 +551,8 @@
         <v>2</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L10" si="0">SUM(C2:K2)</f>
-        <v>327</v>
+        <f t="shared" ref="L2:L11" si="0">SUM(C2:K2)</f>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -557,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,9 +577,7 @@
       <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1">
         <v>0</v>
       </c>
@@ -588,7 +589,7 @@
       </c>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -596,13 +597,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
@@ -611,7 +612,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1">
         <v>60</v>
@@ -627,7 +628,7 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -635,38 +636,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1">
         <v>55</v>
       </c>
-      <c r="G5" s="1">
-        <v>50</v>
-      </c>
       <c r="H5" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1">
         <v>15</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -674,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
@@ -695,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -705,7 +706,7 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -713,19 +714,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>70</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>45</v>
       </c>
       <c r="F7" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
         <v>30</v>
@@ -734,7 +735,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1">
         <v>10</v>
@@ -744,7 +745,7 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -752,116 +753,153 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <f>SUM(C8:K8)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2">
         <v>20</v>
       </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <v>50</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="I10" s="2">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>45</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
-        <v>25</v>
-      </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Chara_RateList.xlsx
+++ b/Assets/Resources/Data/Chara_RateList.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Data/Chara_RateList.xlsx
+++ b/Assets/Resources/Data/Chara_RateList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -65,21 +65,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中東</t>
-    <rPh sb="0" eb="2">
-      <t>ナカヒガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>total</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガバさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヒュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -109,6 +98,22 @@
   </si>
   <si>
     <t>ジャイロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィーナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -462,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -513,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -521,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>65</v>
@@ -560,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -597,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>75</v>
@@ -636,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>65</v>
@@ -675,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
@@ -714,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>70</v>
@@ -753,12 +758,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
       <c r="E8" s="1">
         <v>35</v>
       </c>
@@ -790,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>70</v>
@@ -829,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>70</v>
@@ -868,39 +875,126 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="2">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2">
         <v>30</v>
       </c>
-      <c r="F11" s="2">
-        <v>45</v>
-      </c>
-      <c r="G11" s="2">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
-        <v>25</v>
-      </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2">
+        <v>75</v>
+      </c>
+      <c r="H12" s="2">
+        <v>75</v>
+      </c>
+      <c r="I12" s="2">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ref="L12:L13" si="1">SUM(C12:K12)</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>55</v>
+      </c>
+      <c r="G13" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
